--- a/wisdem/library/landbosse/ge15_expected_validation.xlsx
+++ b/wisdem/library/landbosse/ge15_expected_validation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akey/Projects/WISDEM/WISDEM/wisdem/library/landbosse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE9655A-F106-C64B-B0CC-115E4070584B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DCC2A-2D92-FC49-A7CD-7FD4133A94DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32460" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20880" yWindow="460" windowWidth="28720" windowHeight="23320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_by_module_type_operation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">costs_by_module_type_operation!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">costs_by_module_type_operation!$A$1:$G$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>FoundationCost</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>Transmission and Distribution</t>
-  </si>
-  <si>
-    <t>Cost / turbine</t>
-  </si>
-  <si>
-    <t>Cost / kW</t>
   </si>
   <si>
     <t>Cost / project</t>
@@ -156,10 +150,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,26 +191,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -558,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -571,13 +553,11 @@
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -599,17 +579,11 @@
       <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -627,19 +601,13 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3075.5356983444499</v>
-      </c>
-      <c r="H2">
-        <v>307553.56983444502</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.0503571322296299</v>
-      </c>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>299607.30011378299</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -657,19 +625,13 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>36776.599867217497</v>
-      </c>
-      <c r="H3">
-        <v>3677659.9867217401</v>
-      </c>
-      <c r="I3" s="3">
-        <v>24.517733244811598</v>
-      </c>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3593613.2013053899</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -687,19 +649,13 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <v>55730.312160670903</v>
-      </c>
-      <c r="H4">
-        <v>5573031.2160670897</v>
-      </c>
-      <c r="I4" s="3">
-        <v>37.153541440447199</v>
-      </c>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5424241.0516086202</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -717,19 +673,13 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <v>4779.1223863116402</v>
-      </c>
-      <c r="H5">
-        <v>477912.23863116401</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6.3721631817488502</v>
-      </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>465873.07765138999</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -747,19 +697,13 @@
         <v>17</v>
       </c>
       <c r="G6">
-        <v>7977.51534597317</v>
-      </c>
-      <c r="H6">
         <v>797751.53459731699</v>
       </c>
-      <c r="I6" s="3">
-        <v>5.3183435639821104</v>
-      </c>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -777,19 +721,13 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>4120.1384003877602</v>
-      </c>
-      <c r="H7">
         <v>412013.84003877599</v>
       </c>
-      <c r="I7" s="3">
-        <v>2.7467589335918401</v>
-      </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -807,19 +745,13 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>6094.6312967557697</v>
-      </c>
-      <c r="H8">
         <v>609463.12967557705</v>
       </c>
-      <c r="I8" s="3">
-        <v>4.0630875311705097</v>
-      </c>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -837,19 +769,13 @@
         <v>19</v>
       </c>
       <c r="G9">
-        <v>13073.007600000001</v>
-      </c>
-      <c r="H9">
         <v>1307300.76</v>
       </c>
-      <c r="I9" s="3">
-        <v>8.7153384000000003</v>
-      </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -867,19 +793,13 @@
         <v>18</v>
       </c>
       <c r="G10">
-        <v>830.09351967474902</v>
-      </c>
-      <c r="H10">
         <v>83009.351967474897</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.55339567978316595</v>
-      </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -897,19 +817,13 @@
         <v>19</v>
       </c>
       <c r="G11">
-        <v>48591.820720828997</v>
-      </c>
-      <c r="H11">
         <v>4859182.0720829004</v>
       </c>
-      <c r="I11" s="3">
-        <v>32.394547147219299</v>
-      </c>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -927,19 +841,13 @@
         <v>19</v>
       </c>
       <c r="G12">
-        <v>40847.751528987697</v>
-      </c>
-      <c r="H12">
         <v>4084775.1528987698</v>
       </c>
-      <c r="I12" s="3">
-        <v>27.231834352658499</v>
-      </c>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -956,20 +864,14 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5">
-        <v>4266.1468629607598</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13">
         <v>426614.68629607599</v>
       </c>
-      <c r="I13" s="5">
-        <v>2.8440979086404998</v>
-      </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -986,20 +888,14 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="5">
-        <v>14028.8802678423</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14">
         <v>1402888.02678423</v>
       </c>
-      <c r="I14" s="5">
-        <v>9.3525868452282594</v>
-      </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1016,20 +912,14 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="5">
-        <v>28080.551406992901</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15">
         <v>2808055.1406992902</v>
       </c>
-      <c r="I15" s="5">
-        <v>18.720367604661899</v>
-      </c>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1046,20 +936,14 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5">
-        <v>2318.7789268898</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16">
         <v>231877.89268898001</v>
       </c>
-      <c r="I16" s="5">
-        <v>1.5458526179265299</v>
-      </c>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -1079,17 +963,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -1107,19 +985,13 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>1500</v>
-      </c>
-      <c r="H18">
         <v>150000</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -1139,17 +1011,11 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -1169,17 +1035,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1199,17 +1059,11 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -1226,20 +1080,14 @@
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="6">
-        <v>7489.11492789153</v>
-      </c>
-      <c r="H22" s="6">
-        <v>748911.49278915301</v>
-      </c>
-      <c r="I22" s="6">
-        <v>4.9927432852610201</v>
-      </c>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>730892.72216529795</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -1256,20 +1104,14 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="6">
-        <v>288.255</v>
-      </c>
-      <c r="H23" s="6">
-        <v>28825.5</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.19217000000000001</v>
-      </c>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>28266</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -1286,20 +1128,14 @@
       <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="6">
-        <v>51346.538032382698</v>
-      </c>
-      <c r="H24" s="6">
-        <v>5134653.8032382699</v>
-      </c>
-      <c r="I24" s="6">
-        <v>34.231025354921798</v>
-      </c>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>5076630.5559791401</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -1316,20 +1152,14 @@
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="6">
-        <v>8993.1</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25">
         <v>899310</v>
       </c>
-      <c r="I25" s="6">
-        <v>5.9954000000000001</v>
-      </c>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1346,20 +1176,14 @@
       <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1376,20 +1200,14 @@
       <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -1406,20 +1224,14 @@
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="6">
-        <v>1883.71900612063</v>
-      </c>
-      <c r="H28" s="6">
-        <v>188371.90061206301</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1.25581267074708</v>
-      </c>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>191287.126780697</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>100</v>
@@ -1436,20 +1248,14 @@
       <c r="F29" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="6">
-        <v>4007.2314022508899</v>
-      </c>
-      <c r="H29" s="6">
-        <v>400723.14022508898</v>
-      </c>
-      <c r="I29" s="6">
-        <v>2.6714876015005902</v>
-      </c>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>395666.692613583</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -1466,20 +1272,14 @@
       <c r="F30" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="6">
-        <v>18877.634920373399</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1887763.4920373401</v>
-      </c>
-      <c r="I30" s="6">
-        <v>12.5850899469156</v>
-      </c>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1884677.4314043</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -1496,20 +1296,14 @@
       <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="6">
-        <v>3363.7839395011201</v>
-      </c>
-      <c r="H31" s="6">
-        <v>336378.39395011298</v>
-      </c>
-      <c r="I31" s="6">
-        <v>2.2425226263340798</v>
-      </c>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>341584.15496552998</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -1526,20 +1320,14 @@
       <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="6">
-        <v>43796.466892304699</v>
-      </c>
-      <c r="H32" s="6">
-        <v>4379646.68923047</v>
-      </c>
-      <c r="I32" s="6">
-        <v>29.1976445948698</v>
-      </c>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>4447425.6976512</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -1556,20 +1344,14 @@
       <c r="F33" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="6">
-        <v>20713.25</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="G33">
         <v>2071325</v>
       </c>
-      <c r="I33" s="6">
-        <v>13.8088333333333</v>
-      </c>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -1586,19 +1368,13 @@
       <c r="F34" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="6">
-        <v>13067.4835</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1306748.3500000001</v>
-      </c>
-      <c r="I34" s="6">
-        <v>8.71165566666666</v>
-      </c>
-      <c r="J34"/>
+      <c r="G34">
+        <v>1306167.9333333301</v>
+      </c>
+      <c r="H34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I34" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
+  <autoFilter ref="A1:G34" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wisdem/library/landbosse/ge15_expected_validation.xlsx
+++ b/wisdem/library/landbosse/ge15_expected_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akey/Projects/WISDEM/WISDEM/wisdem/library/landbosse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DCC2A-2D92-FC49-A7CD-7FD4133A94DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906BF94-CBF0-EC41-8429-218A21ABCD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20880" yWindow="460" windowWidth="28720" windowHeight="23320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="H18"/>
     </row>

--- a/wisdem/library/landbosse/ge15_expected_validation.xlsx
+++ b/wisdem/library/landbosse/ge15_expected_validation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akey/Projects/WISDEM/WISDEM/wisdem/library/landbosse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbarter/devel/WISDEM/wisdem/library/landbosse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906BF94-CBF0-EC41-8429-218A21ABCD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FA9311-4BC4-834F-93DA-047E194A2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="460" windowWidth="28720" windowHeight="23320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9700" yWindow="500" windowWidth="28720" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_by_module_type_operation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">costs_by_module_type_operation!$A$1:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">costs_by_module_type_operation!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="39">
   <si>
     <t>FoundationCost</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>WISDEM</t>
+  </si>
+  <si>
+    <t>TransportCost</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
 </sst>
 </file>
@@ -220,9 +226,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,9 +266,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,26 +301,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,26 +336,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,16 +804,16 @@
         <v>1.5</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12">
-        <v>4084775.1528987698</v>
+        <v>1190000</v>
       </c>
       <c r="H12"/>
     </row>
@@ -856,16 +828,16 @@
         <v>1.5</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>426614.68629607599</v>
+        <v>4084775.1528987698</v>
       </c>
       <c r="H13"/>
     </row>
@@ -886,10 +858,10 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>1402888.02678423</v>
+        <v>426614.68629607599</v>
       </c>
       <c r="H14"/>
     </row>
@@ -910,10 +882,10 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>2808055.1406992902</v>
+        <v>1402888.02678423</v>
       </c>
       <c r="H15"/>
     </row>
@@ -934,10 +906,10 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>231877.89268898001</v>
+        <v>2808055.1406992902</v>
       </c>
       <c r="H16"/>
     </row>
@@ -952,16 +924,16 @@
         <v>1.5</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>231877.89268898001</v>
       </c>
       <c r="H17"/>
     </row>
@@ -982,10 +954,10 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H18"/>
     </row>
@@ -1006,10 +978,10 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H19"/>
     </row>
@@ -1030,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1054,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1072,16 +1044,16 @@
         <v>1.5</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G22">
-        <v>730892.72216529795</v>
+        <v>0</v>
       </c>
       <c r="H22"/>
     </row>
@@ -1102,10 +1074,10 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>28266</v>
+        <v>730892.72216529795</v>
       </c>
       <c r="H23"/>
     </row>
@@ -1126,10 +1098,10 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>5076630.5559791401</v>
+        <v>28266</v>
       </c>
       <c r="H24"/>
     </row>
@@ -1150,10 +1122,10 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>899310</v>
+        <v>5076630.5559791401</v>
       </c>
       <c r="H25"/>
     </row>
@@ -1174,10 +1146,10 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>899310</v>
       </c>
       <c r="H26"/>
     </row>
@@ -1198,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1216,16 +1188,16 @@
         <v>1.5</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>191287.126780697</v>
+        <v>0</v>
       </c>
       <c r="H28"/>
     </row>
@@ -1246,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29">
-        <v>395666.692613583</v>
+        <v>197951.126780675</v>
       </c>
       <c r="H29"/>
     </row>
@@ -1270,10 +1242,10 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G30">
-        <v>1884677.4314043</v>
+        <v>395666.692613583</v>
       </c>
       <c r="H30"/>
     </row>
@@ -1294,10 +1266,10 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G31">
-        <v>341584.15496552998</v>
+        <v>1884677.4314043</v>
       </c>
       <c r="H31"/>
     </row>
@@ -1318,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G32">
-        <v>4447425.6976512</v>
+        <v>353484.15496549098</v>
       </c>
       <c r="H32"/>
     </row>
@@ -1342,10 +1314,10 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>2071325</v>
+        <v>4602363.6976506999</v>
       </c>
       <c r="H33"/>
     </row>
@@ -1366,15 +1338,39 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>2071325</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>1.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
         <v>27</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>1306167.9333333301</v>
       </c>
-      <c r="H34"/>
+      <c r="H35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G34" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
+  <autoFilter ref="A1:G35" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wisdem/library/landbosse/ge15_expected_validation.xlsx
+++ b/wisdem/library/landbosse/ge15_expected_validation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbarter/devel/WISDEM/wisdem/library/landbosse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbarter/devel/LandBOSSE/project_input_template/project_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FA9311-4BC4-834F-93DA-047E194A2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10402C75-5DF7-4143-9078-3EB5EC72F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="500" windowWidth="28720" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="500" windowWidth="28720" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_by_module_type_operation" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G29" sqref="G29:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="G12">
-        <v>1190000</v>
+        <v>12320000</v>
       </c>
       <c r="H12"/>
     </row>
@@ -1221,7 +1221,7 @@
         <v>24</v>
       </c>
       <c r="G29">
-        <v>197951.126780675</v>
+        <v>260279.126780675</v>
       </c>
       <c r="H29"/>
     </row>
@@ -1245,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="G30">
-        <v>395666.692613583</v>
+        <v>395666.69261350599</v>
       </c>
       <c r="H30"/>
     </row>
@@ -1293,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="G32">
-        <v>353484.15496549098</v>
+        <v>464784.15496549098</v>
       </c>
       <c r="H32"/>
     </row>
@@ -1317,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="G33">
-        <v>4602363.6976506999</v>
+        <v>6051489.6976506999</v>
       </c>
       <c r="H33"/>
     </row>

--- a/wisdem/library/landbosse/ge15_expected_validation.xlsx
+++ b/wisdem/library/landbosse/ge15_expected_validation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbarter/devel/LandBOSSE/project_input_template/project_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcrook\nrel\github\LandBOSSE\input\project_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10402C75-5DF7-4143-9078-3EB5EC72F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B79682-D817-49EC-8218-147192497AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="500" windowWidth="28720" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_by_module_type_operation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">costs_by_module_type_operation!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">costs_by_module_type_operation!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
   <si>
     <t>FoundationCost</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Number of turbines</t>
   </si>
   <si>
-    <t>Turbine rating MW</t>
-  </si>
-  <si>
     <t>Project ID with serial</t>
   </si>
   <si>
@@ -150,6 +147,15 @@
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>Turbine rating (MW)</t>
+  </si>
+  <si>
+    <t>TurbineCost</t>
+  </si>
+  <si>
+    <t>Turbine</t>
   </si>
 </sst>
 </file>
@@ -512,50 +518,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -573,13 +577,13 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>299607.30011378299</v>
+        <v>299607.30011378002</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -597,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>3593613.2013053899</v>
+        <v>3593613.2013053601</v>
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -621,13 +625,13 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <v>5424241.0516086202</v>
+        <v>5424241.0516085699</v>
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -645,13 +649,12 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <v>465873.07765138999</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>465873.07765138499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -671,11 +674,10 @@
       <c r="G6">
         <v>797751.53459731699</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -695,11 +697,10 @@
       <c r="G7">
         <v>412013.84003877599</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -719,11 +720,10 @@
       <c r="G8">
         <v>609463.12967557705</v>
       </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -743,11 +743,10 @@
       <c r="G9">
         <v>1307300.76</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -767,11 +766,10 @@
       <c r="G10">
         <v>83009.351967474897</v>
       </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -791,23 +789,22 @@
       <c r="G11">
         <v>4859182.0720829004</v>
       </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>1.5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -815,11 +812,10 @@
       <c r="G12">
         <v>12320000</v>
       </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -831,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -839,11 +835,10 @@
       <c r="G13">
         <v>4084775.1528987698</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -861,13 +856,12 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <v>426614.68629607599</v>
-      </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>497045.44340216101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -885,13 +879,12 @@
         <v>16</v>
       </c>
       <c r="G15">
-        <v>1402888.02678423</v>
-      </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1560537.3987719801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -909,13 +902,12 @@
         <v>17</v>
       </c>
       <c r="G16">
-        <v>2808055.1406992902</v>
-      </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3334332.4600047702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -933,13 +925,12 @@
         <v>18</v>
       </c>
       <c r="G17">
-        <v>231877.89268898001</v>
-      </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>269595.76510894601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -959,11 +950,10 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -983,11 +973,10 @@
       <c r="G19">
         <v>1000000</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -1007,11 +996,10 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1031,11 +1019,10 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -1055,11 +1042,10 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -1068,22 +1054,21 @@
         <v>1.5</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G23">
-        <v>730892.72216529795</v>
-      </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -1098,16 +1083,15 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>28266</v>
-      </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>570674.28623627801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -1122,16 +1106,15 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>5076630.5559791401</v>
-      </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1146,16 +1129,15 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>899310</v>
-      </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4558948.42278203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1170,16 +1152,15 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1213156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>100</v>
@@ -1194,16 +1175,15 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>100</v>
@@ -1212,22 +1192,21 @@
         <v>1.5</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>260279.126780675</v>
-      </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>100</v>
@@ -1242,16 +1221,15 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30">
-        <v>395666.69261350599</v>
-      </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>262649.19659017801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -1266,16 +1244,15 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G31">
-        <v>1884677.4314043</v>
-      </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>395666.69261358201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -1290,16 +1267,15 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>464784.15496549098</v>
-      </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1820552.416185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -1314,16 +1290,15 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>6051489.6976506999</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>469016.42248246103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -1338,16 +1313,15 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>2071325</v>
-      </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6106593.8207216403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>100</v>
@@ -1362,15 +1336,37 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>2071325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="G35">
-        <v>1306167.9333333301</v>
-      </c>
-      <c r="H35"/>
+      <c r="G36">
+        <v>1294172.6187036999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G35" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
+  <autoFilter ref="A1:G4" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>